--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3863.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3863.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.108329137528549</v>
+        <v>3.91966724395752</v>
       </c>
       <c r="B1">
-        <v>3.627108869648646</v>
+        <v>5.435782432556152</v>
       </c>
       <c r="C1">
-        <v>3.758565043914377</v>
+        <v>4.4125075340271</v>
       </c>
       <c r="D1">
-        <v>1.808244223475351</v>
+        <v>5.153647422790527</v>
       </c>
       <c r="E1">
-        <v>0.7810463239427075</v>
+        <v>4.764707088470459</v>
       </c>
     </row>
   </sheetData>
